--- a/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
+++ b/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\PWR_Switch_ETH\PCB\control_PWR_PCB\Project Outputs for control_PWR_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE788EA-3ED8-4B18-83CD-8F736DADBBC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D454786E-F2B7-43CE-A361-A9A73998BBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="10008" xr2:uid="{B555C626-9528-4FCC-BA8A-DE14BB228773}"/>
+    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="10008" xr2:uid="{E340F83C-1518-4736-A66A-F39B886A1119}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-control_PWR_P" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D746C22E-D076-4F08-A5B7-ABA18BC903C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA63A342-A851-40DC-97F7-629ED6F04825}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
+++ b/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\PWR_Switch_ETH\PCB\control_PWR_PCB\Project Outputs for control_PWR_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D454786E-F2B7-43CE-A361-A9A73998BBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C390BA-8CAE-42DB-B84A-83B2031F1FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="10008" xr2:uid="{E340F83C-1518-4736-A66A-F39B886A1119}"/>
+    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="10008" xr2:uid="{9C95AA7E-2B7F-4313-ACCA-F8C59F7BAD4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-control_PWR_P" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA63A342-A851-40DC-97F7-629ED6F04825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F475FA-81A2-4B1D-A970-D7FEB8C6716F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
+++ b/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\PWR_Switch_ETH\PCB\control_PWR_PCB\Project Outputs for control_PWR_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C390BA-8CAE-42DB-B84A-83B2031F1FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4163ADE7-8539-4066-89B4-48D81ABE5056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="10008" xr2:uid="{9C95AA7E-2B7F-4313-ACCA-F8C59F7BAD4D}"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{99332CA1-E2CC-40FC-9343-387B9E806718}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-control_PWR_P" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>Comment</t>
   </si>
@@ -380,16 +380,10 @@
     <t>C5, C6, C7, C8, C10, C14, C16, C18, C20, C21, C22, C24, C27, C28</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>Cap C</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C2, C3</t>
   </si>
   <si>
     <t>4.7 uF</t>
@@ -784,11 +778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F475FA-81A2-4B1D-A970-D7FEB8C6716F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8046758-4AA1-4844-ADF0-F4204700E970}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1536,36 +1530,24 @@
       <c r="B55" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="D55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="4">
         <v>2</v>
       </c>
     </row>

--- a/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
+++ b/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\PWR_Switch_ETH\PCB\control_PWR_PCB\Project Outputs for control_PWR_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4163ADE7-8539-4066-89B4-48D81ABE5056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{596146CF-ACB9-4889-AFBA-32EDC7C93748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{99332CA1-E2CC-40FC-9343-387B9E806718}"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{31E90998-05EB-4CF4-BEF1-1A9EF92C51A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-control_PWR_P" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>Comment</t>
   </si>
@@ -47,31 +47,16 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>PLS-3</t>
-  </si>
-  <si>
-    <t>XP4</t>
-  </si>
-  <si>
-    <t>UART</t>
-  </si>
-  <si>
-    <t>XP3</t>
-  </si>
-  <si>
-    <t>uart</t>
-  </si>
-  <si>
-    <t>reset setings</t>
-  </si>
-  <si>
-    <t>XP2</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>XP1</t>
+    <t>PLS-3 2.54</t>
+  </si>
+  <si>
+    <t>XP2, XP4</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>XP1, XP3</t>
   </si>
   <si>
     <t>25Mhz</t>
@@ -92,7 +77,7 @@
     <t>3.3_2.5 12Mhz</t>
   </si>
   <si>
-    <t>PLS-5</t>
+    <t>PLS-5 2.54</t>
   </si>
   <si>
     <t>X3</t>
@@ -110,22 +95,22 @@
     <t>X1</t>
   </si>
   <si>
+    <t>KLS1-208-2-10-R</t>
+  </si>
+  <si>
     <t>LM1117MPX-3.3</t>
   </si>
   <si>
     <t>VR1</t>
   </si>
   <si>
-    <t/>
+    <t>0805 Green</t>
   </si>
   <si>
     <t>VD1, VD2, VD3, VD4, VD5, VD6</t>
   </si>
   <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>STM32F407V</t>
+    <t>STM32F407VE</t>
   </si>
   <si>
     <t>U1</t>
@@ -143,6 +128,12 @@
     <t>S1, S2</t>
   </si>
   <si>
+    <t>0603 NC</t>
+  </si>
+  <si>
+    <t>R46, R48</t>
+  </si>
+  <si>
     <t>0603 1,5k</t>
   </si>
   <si>
@@ -155,7 +146,7 @@
     <t>R36, R37, R38, R40</t>
   </si>
   <si>
-    <t>0603 220 Ом</t>
+    <t>0603 220 Om</t>
   </si>
   <si>
     <t>R35, R42</t>
@@ -167,64 +158,58 @@
     <t>R34</t>
   </si>
   <si>
+    <t>0603 33R</t>
+  </si>
+  <si>
+    <t>R30, R31, R33, R41, R51, R52</t>
+  </si>
+  <si>
+    <t>0603 50R</t>
+  </si>
+  <si>
+    <t>R26, R27, R28, R29</t>
+  </si>
+  <si>
+    <t>0603 3K</t>
+  </si>
+  <si>
+    <t>R21, R22, R24</t>
+  </si>
+  <si>
+    <t>0603 510R</t>
+  </si>
+  <si>
+    <t>R20, R39</t>
+  </si>
+  <si>
+    <t>0603 4.7k</t>
+  </si>
+  <si>
+    <t>R18, R25</t>
+  </si>
+  <si>
+    <t>0603 0</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
     <t>0603 10k</t>
   </si>
   <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>0603 33R</t>
-  </si>
-  <si>
-    <t>R30, R31, R33, R41</t>
-  </si>
-  <si>
-    <t>0603 50R</t>
-  </si>
-  <si>
-    <t>R26, R27, R28, R29</t>
-  </si>
-  <si>
-    <t>3K</t>
-  </si>
-  <si>
-    <t>R21, R22, R24</t>
-  </si>
-  <si>
-    <t>510R</t>
-  </si>
-  <si>
-    <t>R20, R39</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>R18, R25</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R15, R16, R19</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>R14, R17</t>
-  </si>
-  <si>
-    <t>120R</t>
+    <t>R15, R16, R19, R32</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>0603 120R</t>
   </si>
   <si>
     <t>R12</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>R11, R13, R23</t>
+    <t>R11, R13, R23, R45, R47</t>
   </si>
   <si>
     <t>0603 1k</t>
@@ -239,13 +224,13 @@
     <t>R9</t>
   </si>
   <si>
-    <t>10K</t>
+    <t>0402 10K</t>
   </si>
   <si>
     <t>R1, R2, R3, R4, R5, R6, R7, R8</t>
   </si>
   <si>
-    <t>SRR1208-6R5ML</t>
+    <t>SRR1208-680Y</t>
   </si>
   <si>
     <t>L1</t>
@@ -257,7 +242,7 @@
     <t>J1</t>
   </si>
   <si>
-    <t>ISO7241</t>
+    <t>ISO7341</t>
   </si>
   <si>
     <t>ISO1</t>
@@ -269,22 +254,19 @@
     <t>IC2</t>
   </si>
   <si>
-    <t>GD25Q16CTIGR</t>
+    <t>25Q16 or 25Q32</t>
   </si>
   <si>
     <t>IC1</t>
   </si>
   <si>
-    <t>GD25Q16CT</t>
-  </si>
-  <si>
     <t>15EDGVC-3.5-2P</t>
   </si>
   <si>
     <t>DG1, DG2</t>
   </si>
   <si>
-    <t>MAX485</t>
+    <t>NSO8 MAX485</t>
   </si>
   <si>
     <t>DD2</t>
@@ -296,6 +278,12 @@
     <t>DD1</t>
   </si>
   <si>
+    <t>B340A-13</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
     <t>SM712</t>
   </si>
   <si>
@@ -314,88 +302,67 @@
     <t>D1</t>
   </si>
   <si>
+    <t>EEEFK1V471SV</t>
+  </si>
+  <si>
+    <t>C35, C36</t>
+  </si>
+  <si>
+    <t>0603 18 pF</t>
+  </si>
+  <si>
+    <t>C29, C34</t>
+  </si>
+  <si>
+    <t>0603 1uF</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>1206 1000p 2kv</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>0603 18 пФ</t>
+  </si>
+  <si>
+    <t>C15, C17</t>
+  </si>
+  <si>
     <t>0603 0.1uF</t>
   </si>
   <si>
-    <t>EEEFK1V471SV</t>
-  </si>
-  <si>
-    <t>C35, C36</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C31, C32, C33</t>
+    <t>C12, C13</t>
+  </si>
+  <si>
+    <t>0805 2.2uF</t>
+  </si>
+  <si>
+    <t>C11, C30</t>
   </si>
   <si>
     <t>TECAP B 10u 16V</t>
   </si>
   <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>0603 1uF</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>1206 1000p 2kv</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>0603 0.001uF</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>0603 18 пФ</t>
-  </si>
-  <si>
-    <t>C15, C17, C29, C34</t>
-  </si>
-  <si>
-    <t>C12, C13</t>
-  </si>
-  <si>
-    <t>0805 2.2uF</t>
-  </si>
-  <si>
-    <t>C11, C30</t>
-  </si>
-  <si>
-    <t>Cap T</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>10u 16V</t>
-  </si>
-  <si>
-    <t>C5, C6, C7, C8, C10, C14, C16, C18, C20, C21, C22, C24, C27, C28</t>
-  </si>
-  <si>
-    <t>Cap C</t>
+    <t>C9, C26</t>
+  </si>
+  <si>
+    <t>C5, C6, C7, C8, C10, C14, C16, C18, C19, C20, C21, C22, C24, C27, C28, C31, C32, C33</t>
+  </si>
+  <si>
+    <t>1812 4.7 uF</t>
   </si>
   <si>
     <t>C2, C3</t>
   </si>
   <si>
-    <t>4.7 uF</t>
-  </si>
-  <si>
-    <t>220uF 50v</t>
+    <t>10x13 NC</t>
   </si>
   <si>
     <t>C1, C4</t>
-  </si>
-  <si>
-    <t>10x13 220uF, 220uF</t>
   </si>
 </sst>
 </file>
@@ -778,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8046758-4AA1-4844-ADF0-F4204700E970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14B29CB-0B63-45DE-8CF3-E027D5812FAE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,21 +796,21 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -857,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -865,13 +832,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -885,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -893,12 +860,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
       <c r="D8" s="4">
         <v>1</v>
       </c>
@@ -910,21 +879,25 @@
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -934,7 +907,9 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
@@ -947,333 +922,343 @@
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D32" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1281,51 +1266,55 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1333,37 +1322,41 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D41" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D42" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1371,13 +1364,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
@@ -1385,27 +1378,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1413,13 +1406,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1427,127 +1420,99 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D50" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D52" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D54" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="4">
         <v>2</v>
       </c>
     </row>
